--- a/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-default-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.625</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2777777777777778</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4853801169590644</v>
+        <v>0.8450292397660819</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.3888888888888889</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9678362573099415</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C4" t="n">
         <v>0.5789473684210527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7339181286549707</v>
+        <v>0.9181286549707602</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5" t="n">
         <v>0.5263157894736842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7923976608187134</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7345679012345678</v>
+        <v>0.5524691358024691</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9083333333333334</v>
+        <v>0.8045736871823828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.476608187134503</v>
+        <v>0.6766081871345029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6201874447391689</v>
+        <v>0.6704094150915935</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7428200129954515</v>
+        <v>0.8157569850552306</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-default-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7058823529411764</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8450292397660819</v>
+        <v>0.01384083044982699</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.878048780487805</v>
+        <v>0.7234042553191489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8096885813148789</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7857142857142857</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5789473684210527</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9181286549707602</v>
+        <v>0.6747404844290658</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.4238754325259515</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.07692307692307691</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5524691358024691</v>
+        <v>0.2335640138408305</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8045736871823828</v>
+        <v>0.1355555555555556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6766081871345029</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6704094150915935</v>
+        <v>0.1600654664484452</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8157569850552306</v>
+        <v>0.4311418685121107</v>
       </c>
     </row>
   </sheetData>
